--- a/4/Tipo de Cambio Real Chile 1984 a 2021 - Anual.xlsx
+++ b/4/Tipo de Cambio Real Chile 1984 a 2021 - Anual.xlsx
@@ -1210,16 +1210,16 @@
         <v>702.63</v>
       </c>
       <c r="C37">
-        <v>95.04000000000001</v>
+        <v>95.03</v>
       </c>
       <c r="D37">
-        <v>78.87</v>
+        <v>78.86</v>
       </c>
       <c r="E37">
-        <v>233.91</v>
+        <v>233.9</v>
       </c>
       <c r="F37">
-        <v>194.1</v>
+        <v>194.08</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1230,16 +1230,16 @@
         <v>792.22</v>
       </c>
       <c r="C38">
-        <v>102.43</v>
+        <v>102.85</v>
       </c>
       <c r="D38">
-        <v>85.3</v>
+        <v>86.16</v>
       </c>
       <c r="E38">
-        <v>230.48</v>
+        <v>231.41</v>
       </c>
       <c r="F38">
-        <v>191.92</v>
+        <v>193.8</v>
       </c>
     </row>
   </sheetData>
